--- a/static/download/common/template/stu_info_upload_template.xlsx
+++ b/static/download/common/template/stu_info_upload_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenzhiwen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\profession\code\pycharm_workplace\contestms\static\download\common\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A13A32-F141-40BD-8774-6506BE1804F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C787F253-28E3-4FAA-91E0-7C8436B02C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,13 +76,37 @@
   </si>
   <si>
     <t>15213858956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>695856944585965000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求真务实，开拓创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,8 +151,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{35E9254D-37D0-4F0A-919B-C7A7B97769B7}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -403,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -418,9 +470,11 @@
     <col min="5" max="5" width="22.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +496,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -465,8 +528,17 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -475,7 +547,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -484,7 +556,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -493,7 +565,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -502,7 +574,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -511,7 +583,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -520,7 +592,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -529,7 +601,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -538,7 +610,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -547,7 +619,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -556,7 +628,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -565,7 +637,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -574,7 +646,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
